--- a/resources/excel files/inspector1.xlsx
+++ b/resources/excel files/inspector1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SYSC 4005\Project\4005 Project\resources\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E1AE3-1EBD-4CAA-8698-5386D75687CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D0D554-1843-487D-B518-76477DF7A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1399EF6F-8C2B-4C97-B987-40EF8DC44D12}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1399EF6F-8C2B-4C97-B987-40EF8DC44D12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t xml:space="preserve">Inspector1 </t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Frequency</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Rank</t>
@@ -8557,35 +8545,35 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>1</v>
@@ -8594,13 +8582,13 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>1</v>
@@ -8609,10 +8597,10 @@
         <v>3</v>
       </c>
       <c r="X1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -8668,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -8712,7 +8700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.114</v>
       </c>
@@ -8756,7 +8744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.121</v>
       </c>
@@ -8800,7 +8788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -8844,7 +8832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.26600000000000001</v>
       </c>
@@ -8888,7 +8876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.33400000000000002</v>
       </c>
@@ -8932,7 +8920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35099999999999998</v>
       </c>
@@ -8976,7 +8964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.35799999999999998</v>
       </c>
@@ -9020,7 +9008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.36199999999999999</v>
       </c>
@@ -9064,7 +9052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.38700000000000001</v>
       </c>
@@ -9108,7 +9096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.41799999999999998</v>
       </c>
@@ -9152,7 +9140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.47499999999999998</v>
       </c>
@@ -9196,7 +9184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.48599999999999999</v>
       </c>
@@ -9240,7 +9228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.496</v>
       </c>
@@ -9284,7 +9272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.502</v>
       </c>
@@ -9328,7 +9316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.55600000000000005</v>
       </c>
@@ -9372,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.6</v>
       </c>
@@ -9416,7 +9404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.65100000000000002</v>
       </c>
@@ -9460,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.69399999999999995</v>
       </c>
@@ -9504,7 +9492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.74</v>
       </c>
@@ -9548,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.78500000000000003</v>
       </c>
@@ -9592,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.98099999999999998</v>
       </c>
@@ -9636,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.2210000000000001</v>
       </c>
@@ -9680,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.2230000000000001</v>
       </c>
@@ -9724,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.24</v>
       </c>
@@ -9768,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.248</v>
       </c>
@@ -9812,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.2490000000000001</v>
       </c>
@@ -9856,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.504</v>
       </c>
@@ -9900,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.532</v>
       </c>
@@ -9944,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.5860000000000001</v>
       </c>
@@ -9988,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.6120000000000001</v>
       </c>
@@ -10032,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.6379999999999999</v>
       </c>
@@ -10076,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.679</v>
       </c>
@@ -10120,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.6910000000000001</v>
       </c>
@@ -10164,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.74</v>
       </c>
@@ -10208,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.7450000000000001</v>
       </c>
@@ -10252,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.9339999999999999</v>
       </c>
@@ -10296,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1.9339999999999999</v>
       </c>
@@ -10340,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.0369999999999999</v>
       </c>
@@ -10384,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.1930000000000001</v>
       </c>
@@ -10428,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.2080000000000002</v>
       </c>
@@ -10457,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.2559999999999998</v>
       </c>
@@ -10477,7 +10465,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.2650000000000001</v>
       </c>
@@ -10497,7 +10485,7 @@
         <v>2.2650000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.4249999999999998</v>
       </c>
@@ -10517,7 +10505,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.431</v>
       </c>
@@ -10537,7 +10525,7 @@
         <v>2.431</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.4319999999999999</v>
       </c>
@@ -10557,7 +10545,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.4769999999999999</v>
       </c>
@@ -10577,7 +10565,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.4860000000000002</v>
       </c>
@@ -10597,7 +10585,7 @@
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.5510000000000002</v>
       </c>
@@ -10617,7 +10605,7 @@
         <v>2.5510000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5619999999999998</v>
       </c>
@@ -10637,7 +10625,7 @@
         <v>2.5619999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5910000000000002</v>
       </c>
@@ -10657,7 +10645,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.665</v>
       </c>
@@ -10677,7 +10665,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.7869999999999999</v>
       </c>
@@ -10697,7 +10685,7 @@
         <v>2.7869999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.8029999999999999</v>
       </c>
@@ -10717,7 +10705,7 @@
         <v>2.8029999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.8439999999999999</v>
       </c>
@@ -10737,7 +10725,7 @@
         <v>2.8439999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.859</v>
       </c>
@@ -10757,7 +10745,7 @@
         <v>2.859</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.8730000000000002</v>
       </c>
@@ -10777,7 +10765,7 @@
         <v>2.8730000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.9369999999999998</v>
       </c>
@@ -10797,7 +10785,7 @@
         <v>2.9369999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.9929999999999999</v>
       </c>
@@ -10817,7 +10805,7 @@
         <v>2.9929999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -10837,7 +10825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3.0259999999999998</v>
       </c>
@@ -10857,7 +10845,7 @@
         <v>3.0259999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3.141</v>
       </c>
@@ -10877,7 +10865,7 @@
         <v>3.141</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.1619999999999999</v>
       </c>
@@ -10897,7 +10885,7 @@
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3.1720000000000002</v>
       </c>
@@ -10917,7 +10905,7 @@
         <v>3.1720000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.214</v>
       </c>
@@ -10937,7 +10925,7 @@
         <v>3.214</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.3889999999999998</v>
       </c>
@@ -10957,7 +10945,7 @@
         <v>3.3889999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3.3919999999999999</v>
       </c>
@@ -10977,7 +10965,7 @@
         <v>3.3919999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3.4260000000000002</v>
       </c>
@@ -10997,7 +10985,7 @@
         <v>3.4260000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3.5059999999999998</v>
       </c>
@@ -11017,7 +11005,7 @@
         <v>3.5059999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3.6429999999999998</v>
       </c>
@@ -11037,7 +11025,7 @@
         <v>3.6429999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3.6509999999999998</v>
       </c>
@@ -11057,7 +11045,7 @@
         <v>3.6509999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.6619999999999999</v>
       </c>
@@ -11077,7 +11065,7 @@
         <v>3.6619999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.746</v>
       </c>
@@ -11097,7 +11085,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.7469999999999999</v>
       </c>
@@ -11117,7 +11105,7 @@
         <v>3.7469999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3.7610000000000001</v>
       </c>
@@ -11137,7 +11125,7 @@
         <v>3.7610000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3.819</v>
       </c>
@@ -11157,7 +11145,7 @@
         <v>3.819</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3.835</v>
       </c>
@@ -11177,7 +11165,7 @@
         <v>3.835</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3.8530000000000002</v>
       </c>
@@ -11197,7 +11185,7 @@
         <v>3.8530000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3.8769999999999998</v>
       </c>
@@ -11217,7 +11205,7 @@
         <v>3.8769999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3.9209999999999998</v>
       </c>
@@ -11237,7 +11225,7 @@
         <v>3.9209999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4.016</v>
       </c>
@@ -11257,7 +11245,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4.0430000000000001</v>
       </c>
@@ -11277,7 +11265,7 @@
         <v>4.0430000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4.0659999999999998</v>
       </c>
@@ -11297,7 +11285,7 @@
         <v>4.0659999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4.1020000000000003</v>
       </c>
@@ -11317,7 +11305,7 @@
         <v>4.1020000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4.125</v>
       </c>
@@ -11337,7 +11325,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4.258</v>
       </c>
@@ -11357,7 +11345,7 @@
         <v>4.258</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4.3360000000000003</v>
       </c>
@@ -11377,7 +11365,7 @@
         <v>4.3360000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4.3440000000000003</v>
       </c>
@@ -11397,7 +11385,7 @@
         <v>4.3440000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4.4109999999999996</v>
       </c>
@@ -11417,7 +11405,7 @@
         <v>4.4109999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4.4210000000000003</v>
       </c>
@@ -11437,7 +11425,7 @@
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4.484</v>
       </c>
@@ -11457,7 +11445,7 @@
         <v>4.484</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4.5339999999999998</v>
       </c>
@@ -11477,7 +11465,7 @@
         <v>4.5339999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4.5519999999999996</v>
       </c>
@@ -11497,7 +11485,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4.58</v>
       </c>
@@ -11517,7 +11505,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4.59</v>
       </c>
@@ -11537,7 +11525,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4.6210000000000004</v>
       </c>
@@ -11557,7 +11545,7 @@
         <v>4.6210000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4.6760000000000002</v>
       </c>
@@ -11577,7 +11565,7 @@
         <v>4.6760000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4.7329999999999997</v>
       </c>
@@ -11597,7 +11585,7 @@
         <v>4.7329999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4.7489999999999997</v>
       </c>
@@ -11617,7 +11605,7 @@
         <v>4.7489999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4.7930000000000001</v>
       </c>
@@ -11637,7 +11625,7 @@
         <v>4.7930000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4.8890000000000002</v>
       </c>
@@ -11657,7 +11645,7 @@
         <v>4.8890000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4.9109999999999996</v>
       </c>
@@ -11677,7 +11665,7 @@
         <v>4.9109999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4.97</v>
       </c>
@@ -11697,7 +11685,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4.9800000000000004</v>
       </c>
@@ -11717,7 +11705,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5.1040000000000001</v>
       </c>
@@ -11737,7 +11725,7 @@
         <v>5.1040000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5.1260000000000003</v>
       </c>
@@ -11757,7 +11745,7 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5.3419999999999996</v>
       </c>
@@ -11777,7 +11765,7 @@
         <v>5.3419999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5.4</v>
       </c>
@@ -11797,7 +11785,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5.4119999999999999</v>
       </c>
@@ -11817,7 +11805,7 @@
         <v>5.4119999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5.423</v>
       </c>
@@ -11837,7 +11825,7 @@
         <v>5.423</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5.4320000000000004</v>
       </c>
@@ -11857,7 +11845,7 @@
         <v>5.4320000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5.4660000000000002</v>
       </c>
@@ -11877,7 +11865,7 @@
         <v>5.4660000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5.4809999999999999</v>
       </c>
@@ -11897,7 +11885,7 @@
         <v>5.4809999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.5620000000000003</v>
       </c>
@@ -11917,7 +11905,7 @@
         <v>5.5620000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5.6559999999999997</v>
       </c>
@@ -11937,7 +11925,7 @@
         <v>5.6559999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5.8109999999999999</v>
       </c>
@@ -11957,7 +11945,7 @@
         <v>5.8109999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5.8179999999999996</v>
       </c>
@@ -11977,7 +11965,7 @@
         <v>5.8179999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5.8689999999999998</v>
       </c>
@@ -11997,7 +11985,7 @@
         <v>5.8689999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5.9089999999999998</v>
       </c>
@@ -12017,7 +12005,7 @@
         <v>5.9089999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5.9809999999999999</v>
       </c>
@@ -12037,7 +12025,7 @@
         <v>5.9809999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>6.0019999999999998</v>
       </c>
@@ -12057,7 +12045,7 @@
         <v>6.0019999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>6.0069999999999997</v>
       </c>
@@ -12077,7 +12065,7 @@
         <v>6.0069999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6.0510000000000002</v>
       </c>
@@ -12097,7 +12085,7 @@
         <v>6.0510000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6.11</v>
       </c>
@@ -12117,7 +12105,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6.1440000000000001</v>
       </c>
@@ -12137,7 +12125,7 @@
         <v>6.1440000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6.3259999999999996</v>
       </c>
@@ -12157,7 +12145,7 @@
         <v>6.3259999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6.4029999999999996</v>
       </c>
@@ -12177,7 +12165,7 @@
         <v>6.4029999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6.4260000000000002</v>
       </c>
@@ -12197,7 +12185,7 @@
         <v>6.4260000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6.4349999999999996</v>
       </c>
@@ -12217,7 +12205,7 @@
         <v>6.4349999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6.4480000000000004</v>
       </c>
@@ -12237,7 +12225,7 @@
         <v>6.4480000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6.5439999999999996</v>
       </c>
@@ -12257,7 +12245,7 @@
         <v>6.5439999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6.5460000000000003</v>
       </c>
@@ -12277,7 +12265,7 @@
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6.5549999999999997</v>
       </c>
@@ -12297,7 +12285,7 @@
         <v>6.5549999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6.5990000000000002</v>
       </c>
@@ -12317,7 +12305,7 @@
         <v>6.5990000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6.6749999999999998</v>
       </c>
@@ -12337,7 +12325,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6.8659999999999997</v>
       </c>
@@ -12357,7 +12345,7 @@
         <v>6.8659999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6.8760000000000003</v>
       </c>
@@ -12377,7 +12365,7 @@
         <v>6.8760000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6.9489999999999998</v>
       </c>
@@ -12397,7 +12385,7 @@
         <v>6.9489999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>7.0949999999999998</v>
       </c>
@@ -12417,7 +12405,7 @@
         <v>7.0949999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7.0949999999999998</v>
       </c>
@@ -12437,7 +12425,7 @@
         <v>7.0949999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>7.11</v>
       </c>
@@ -12457,7 +12445,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>7.1479999999999997</v>
       </c>
@@ -12477,7 +12465,7 @@
         <v>7.1479999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>7.2169999999999996</v>
       </c>
@@ -12497,7 +12485,7 @@
         <v>7.2169999999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>7.25</v>
       </c>
@@ -12517,7 +12505,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>7.2569999999999997</v>
       </c>
@@ -12537,7 +12525,7 @@
         <v>7.2569999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>7.52</v>
       </c>
@@ -12557,7 +12545,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>7.54</v>
       </c>
@@ -12577,7 +12565,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>7.5830000000000002</v>
       </c>
@@ -12597,7 +12585,7 @@
         <v>7.5830000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>7.7210000000000001</v>
       </c>
@@ -12617,7 +12605,7 @@
         <v>7.7210000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7.8010000000000002</v>
       </c>
@@ -12637,7 +12625,7 @@
         <v>7.8010000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>7.8550000000000004</v>
       </c>
@@ -12657,7 +12645,7 @@
         <v>7.8550000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>7.9950000000000001</v>
       </c>
@@ -12677,7 +12665,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>8.0429999999999993</v>
       </c>
@@ -12697,7 +12685,7 @@
         <v>8.0429999999999993</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8.0440000000000005</v>
       </c>
@@ -12717,7 +12705,7 @@
         <v>8.0440000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>8.1590000000000007</v>
       </c>
@@ -12737,7 +12725,7 @@
         <v>8.1590000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>8.2420000000000009</v>
       </c>
@@ -12757,7 +12745,7 @@
         <v>8.2420000000000009</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>8.2590000000000003</v>
       </c>
@@ -12777,7 +12765,7 @@
         <v>8.2590000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>8.2959999999999994</v>
       </c>
@@ -12797,7 +12785,7 @@
         <v>8.2959999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>8.3239999999999998</v>
       </c>
@@ -12817,7 +12805,7 @@
         <v>8.3239999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>8.3339999999999996</v>
       </c>
@@ -12837,7 +12825,7 @@
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>8.41</v>
       </c>
@@ -12857,7 +12845,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>8.4700000000000006</v>
       </c>
@@ -12877,7 +12865,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8.4819999999999993</v>
       </c>
@@ -12897,7 +12885,7 @@
         <v>8.4819999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>8.5060000000000002</v>
       </c>
@@ -12917,7 +12905,7 @@
         <v>8.5060000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>8.532</v>
       </c>
@@ -12937,7 +12925,7 @@
         <v>8.532</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>8.5890000000000004</v>
       </c>
@@ -12957,7 +12945,7 @@
         <v>8.5890000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>8.6820000000000004</v>
       </c>
@@ -12977,7 +12965,7 @@
         <v>8.6820000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>8.7260000000000009</v>
       </c>
@@ -12997,7 +12985,7 @@
         <v>8.7260000000000009</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>8.9250000000000007</v>
       </c>
@@ -13017,7 +13005,7 @@
         <v>8.9250000000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>8.9890000000000008</v>
       </c>
@@ -13037,7 +13025,7 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>9.0500000000000007</v>
       </c>
@@ -13057,7 +13045,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>9.0579999999999998</v>
       </c>
@@ -13077,7 +13065,7 @@
         <v>9.0579999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9.1</v>
       </c>
@@ -13097,7 +13085,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.3510000000000009</v>
       </c>
@@ -13117,7 +13105,7 @@
         <v>9.3510000000000009</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>9.4239999999999995</v>
       </c>
@@ -13137,7 +13125,7 @@
         <v>9.4239999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9.4860000000000007</v>
       </c>
@@ -13157,7 +13145,7 @@
         <v>9.4860000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>9.5389999999999997</v>
       </c>
@@ -13177,7 +13165,7 @@
         <v>9.5389999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>9.6210000000000004</v>
       </c>
@@ -13197,7 +13185,7 @@
         <v>9.6210000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>9.6649999999999991</v>
       </c>
@@ -13217,7 +13205,7 @@
         <v>9.6649999999999991</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>9.7460000000000004</v>
       </c>
@@ -13237,7 +13225,7 @@
         <v>9.7460000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>9.8480000000000008</v>
       </c>
@@ -13257,7 +13245,7 @@
         <v>9.8480000000000008</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>9.9689999999999994</v>
       </c>
@@ -13277,7 +13265,7 @@
         <v>9.9689999999999994</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>10.042999999999999</v>
       </c>
@@ -13297,7 +13285,7 @@
         <v>10.042999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>10.16</v>
       </c>
@@ -13317,7 +13305,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>10.266999999999999</v>
       </c>
@@ -13337,7 +13325,7 @@
         <v>10.266999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>10.272</v>
       </c>
@@ -13357,7 +13345,7 @@
         <v>10.272</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>10.311</v>
       </c>
@@ -13377,7 +13365,7 @@
         <v>10.311</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>10.327999999999999</v>
       </c>
@@ -13397,7 +13385,7 @@
         <v>10.327999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10.404</v>
       </c>
@@ -13417,7 +13405,7 @@
         <v>10.404</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>10.406000000000001</v>
       </c>
@@ -13437,7 +13425,7 @@
         <v>10.406000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>10.441000000000001</v>
       </c>
@@ -13457,7 +13445,7 @@
         <v>10.441000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>10.465999999999999</v>
       </c>
@@ -13477,7 +13465,7 @@
         <v>10.465999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>10.701000000000001</v>
       </c>
@@ -13497,7 +13485,7 @@
         <v>10.701000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>10.79</v>
       </c>
@@ -13517,7 +13505,7 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10.983000000000001</v>
       </c>
@@ -13537,7 +13525,7 @@
         <v>10.983000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>11.113</v>
       </c>
@@ -13557,7 +13545,7 @@
         <v>11.113</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>11.178000000000001</v>
       </c>
@@ -13577,7 +13565,7 @@
         <v>11.178000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>11.393000000000001</v>
       </c>
@@ -13597,7 +13585,7 @@
         <v>11.393000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>11.574</v>
       </c>
@@ -13617,7 +13605,7 @@
         <v>11.574</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>11.581</v>
       </c>
@@ -13637,7 +13625,7 @@
         <v>11.581</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>11.664999999999999</v>
       </c>
@@ -13657,7 +13645,7 @@
         <v>11.664999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>11.683999999999999</v>
       </c>
@@ -13677,7 +13665,7 @@
         <v>11.683999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>11.744</v>
       </c>
@@ -13697,7 +13685,7 @@
         <v>11.744</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>11.929</v>
       </c>
@@ -13717,7 +13705,7 @@
         <v>11.929</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11.942</v>
       </c>
@@ -13737,7 +13725,7 @@
         <v>11.942</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11.943</v>
       </c>
@@ -13757,7 +13745,7 @@
         <v>11.943</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>12.34</v>
       </c>
@@ -13777,7 +13765,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>12.358000000000001</v>
       </c>
@@ -13797,7 +13785,7 @@
         <v>12.358000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>12.528</v>
       </c>
@@ -13817,7 +13805,7 @@
         <v>12.528</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>12.675000000000001</v>
       </c>
@@ -13837,7 +13825,7 @@
         <v>12.675000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>12.721</v>
       </c>
@@ -13857,7 +13845,7 @@
         <v>12.721</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>12.805999999999999</v>
       </c>
@@ -13877,7 +13865,7 @@
         <v>12.805999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>12.832000000000001</v>
       </c>
@@ -13897,7 +13885,7 @@
         <v>12.832000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>12.92</v>
       </c>
@@ -13917,7 +13905,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12.976000000000001</v>
       </c>
@@ -13937,7 +13925,7 @@
         <v>12.976000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>13.121</v>
       </c>
@@ -13957,7 +13945,7 @@
         <v>13.121</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>13.2</v>
       </c>
@@ -13977,7 +13965,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>13.202</v>
       </c>
@@ -13997,7 +13985,7 @@
         <v>13.202</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>13.311</v>
       </c>
@@ -14017,7 +14005,7 @@
         <v>13.311</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>13.507999999999999</v>
       </c>
@@ -14037,7 +14025,7 @@
         <v>13.507999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>13.595000000000001</v>
       </c>
@@ -14057,7 +14045,7 @@
         <v>13.595000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>13.76</v>
       </c>
@@ -14077,7 +14065,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>13.824999999999999</v>
       </c>
@@ -14097,7 +14085,7 @@
         <v>13.824999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>13.872999999999999</v>
       </c>
@@ -14117,7 +14105,7 @@
         <v>13.872999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>13.903</v>
       </c>
@@ -14137,7 +14125,7 @@
         <v>13.903</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>14.117000000000001</v>
       </c>
@@ -14157,7 +14145,7 @@
         <v>14.117000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>14.182</v>
       </c>
@@ -14177,7 +14165,7 @@
         <v>14.182</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14.206</v>
       </c>
@@ -14197,7 +14185,7 @@
         <v>14.206</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>14.266</v>
       </c>
@@ -14217,7 +14205,7 @@
         <v>14.266</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14.481</v>
       </c>
@@ -14237,7 +14225,7 @@
         <v>14.481</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14.618</v>
       </c>
@@ -14257,7 +14245,7 @@
         <v>14.618</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14.856999999999999</v>
       </c>
@@ -14277,7 +14265,7 @@
         <v>14.856999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>14.925000000000001</v>
       </c>
@@ -14297,7 +14285,7 @@
         <v>14.925000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>14.946</v>
       </c>
@@ -14317,7 +14305,7 @@
         <v>14.946</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>15.129</v>
       </c>
@@ -14337,7 +14325,7 @@
         <v>15.129</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>15.15</v>
       </c>
@@ -14357,7 +14345,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15.151</v>
       </c>
@@ -14377,7 +14365,7 @@
         <v>15.151</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>15.423</v>
       </c>
@@ -14397,7 +14385,7 @@
         <v>15.423</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>15.521000000000001</v>
       </c>
@@ -14417,7 +14405,7 @@
         <v>15.521000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>15.821</v>
       </c>
@@ -14437,7 +14425,7 @@
         <v>15.821</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>16.238</v>
       </c>
@@ -14457,7 +14445,7 @@
         <v>16.238</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>16.518999999999998</v>
       </c>
@@ -14477,7 +14465,7 @@
         <v>16.518999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>16.704999999999998</v>
       </c>
@@ -14497,7 +14485,7 @@
         <v>16.704999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>16.852</v>
       </c>
@@ -14517,7 +14505,7 @@
         <v>16.852</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>16.873999999999999</v>
       </c>
@@ -14537,7 +14525,7 @@
         <v>16.873999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>17.274999999999999</v>
       </c>
@@ -14557,7 +14545,7 @@
         <v>17.274999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>17.832999999999998</v>
       </c>
@@ -14577,7 +14565,7 @@
         <v>17.832999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>18.189</v>
       </c>
@@ -14597,7 +14585,7 @@
         <v>18.189</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>18.29</v>
       </c>
@@ -14617,7 +14605,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>18.311</v>
       </c>
@@ -14637,7 +14625,7 @@
         <v>18.311</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>18.492999999999999</v>
       </c>
@@ -14657,7 +14645,7 @@
         <v>18.492999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>18.617999999999999</v>
       </c>
@@ -14677,7 +14665,7 @@
         <v>18.617999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>19.175000000000001</v>
       </c>
@@ -14697,7 +14685,7 @@
         <v>19.175000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>19.603000000000002</v>
       </c>
@@ -14717,7 +14705,7 @@
         <v>19.603000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>19.640999999999998</v>
       </c>
@@ -14737,7 +14725,7 @@
         <v>19.640999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>19.93</v>
       </c>
@@ -14757,7 +14745,7 @@
         <v>19.93</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>19.933</v>
       </c>
@@ -14777,7 +14765,7 @@
         <v>19.933</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>20.11</v>
       </c>
@@ -14797,7 +14785,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>20.274000000000001</v>
       </c>
@@ -14817,7 +14805,7 @@
         <v>20.274000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>20.617999999999999</v>
       </c>
@@ -14837,7 +14825,7 @@
         <v>20.617999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>20.623000000000001</v>
       </c>
@@ -14857,7 +14845,7 @@
         <v>20.623000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>20.949000000000002</v>
       </c>
@@ -14877,7 +14865,7 @@
         <v>20.949000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>21.170999999999999</v>
       </c>
@@ -14897,7 +14885,7 @@
         <v>21.170999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>21.227</v>
       </c>
@@ -14917,7 +14905,7 @@
         <v>21.227</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>21.477</v>
       </c>
@@ -14937,7 +14925,7 @@
         <v>21.477</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>22.131</v>
       </c>
@@ -14957,7 +14945,7 @@
         <v>22.131</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>22.239000000000001</v>
       </c>
@@ -14977,7 +14965,7 @@
         <v>22.239000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>22.305</v>
       </c>
@@ -14997,7 +14985,7 @@
         <v>22.305</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>22.373999999999999</v>
       </c>
@@ -15017,7 +15005,7 @@
         <v>22.373999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>22.454000000000001</v>
       </c>
@@ -15037,7 +15025,7 @@
         <v>22.454000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>22.654</v>
       </c>
@@ -15057,7 +15045,7 @@
         <v>22.654</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>22.71</v>
       </c>
@@ -15077,7 +15065,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>23.239000000000001</v>
       </c>
@@ -15097,7 +15085,7 @@
         <v>23.239000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>23.558</v>
       </c>
@@ -15117,7 +15105,7 @@
         <v>23.558</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>23.591999999999999</v>
       </c>
@@ -15137,7 +15125,7 @@
         <v>23.591999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>24.454999999999998</v>
       </c>
@@ -15157,7 +15145,7 @@
         <v>24.454999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>24.597000000000001</v>
       </c>
@@ -15177,7 +15165,7 @@
         <v>24.597000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>25.266999999999999</v>
       </c>
@@ -15197,7 +15185,7 @@
         <v>25.266999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>25.288</v>
       </c>
@@ -15217,7 +15205,7 @@
         <v>25.288</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>25.395</v>
       </c>
@@ -15237,7 +15225,7 @@
         <v>25.395</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>26.175999999999998</v>
       </c>
@@ -15257,7 +15245,7 @@
         <v>26.175999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>26.75</v>
       </c>
@@ -15277,7 +15265,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>26.898</v>
       </c>
@@ -15297,7 +15285,7 @@
         <v>26.898</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>27.073</v>
       </c>
@@ -15317,7 +15305,7 @@
         <v>27.073</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>27.983000000000001</v>
       </c>
@@ -15337,7 +15325,7 @@
         <v>27.983000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>28.015000000000001</v>
       </c>
@@ -15357,7 +15345,7 @@
         <v>28.015000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>29.292999999999999</v>
       </c>
@@ -15377,7 +15365,7 @@
         <v>29.292999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>32.106999999999999</v>
       </c>
@@ -15397,7 +15385,7 @@
         <v>32.106999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>32.939</v>
       </c>
@@ -15417,7 +15405,7 @@
         <v>32.939</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>33.024000000000001</v>
       </c>
@@ -15437,7 +15425,7 @@
         <v>33.024000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>33.691000000000003</v>
       </c>
@@ -15457,7 +15445,7 @@
         <v>33.691000000000003</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>36.744</v>
       </c>
@@ -15477,7 +15465,7 @@
         <v>36.744</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>37.308999999999997</v>
       </c>
@@ -15497,7 +15485,7 @@
         <v>37.308999999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>37.381</v>
       </c>
@@ -15517,7 +15505,7 @@
         <v>37.381</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>37.728000000000002</v>
       </c>
@@ -15537,7 +15525,7 @@
         <v>37.728000000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>40.25</v>
       </c>
@@ -15557,7 +15545,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>51.216000000000001</v>
       </c>
@@ -15577,7 +15565,7 @@
         <v>51.216000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>58.308999999999997</v>
       </c>
@@ -15597,7 +15585,7 @@
         <v>58.308999999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>76.284000000000006</v>
       </c>
@@ -15632,42 +15620,42 @@
   <dimension ref="A1:X301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N239" sqref="N239"/>
+      <selection activeCell="K19" sqref="A1:L301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -15676,18 +15664,18 @@
         <v>3</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="X1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -15734,7 +15722,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -15773,7 +15761,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.114</v>
       </c>
@@ -15812,7 +15800,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.121</v>
       </c>
@@ -15851,7 +15839,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -15890,7 +15878,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.26600000000000001</v>
       </c>
@@ -15929,7 +15917,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.33400000000000002</v>
       </c>
@@ -15968,7 +15956,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35099999999999998</v>
       </c>
@@ -16007,7 +15995,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.35799999999999998</v>
       </c>
@@ -16046,7 +16034,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.36199999999999999</v>
       </c>
@@ -16085,7 +16073,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.38700000000000001</v>
       </c>
@@ -16124,7 +16112,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.41799999999999998</v>
       </c>
@@ -16163,7 +16151,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.47499999999999998</v>
       </c>
@@ -16202,7 +16190,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.48599999999999999</v>
       </c>
@@ -16241,7 +16229,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.496</v>
       </c>
@@ -16280,7 +16268,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.502</v>
       </c>
@@ -16319,7 +16307,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.55600000000000005</v>
       </c>
@@ -16358,7 +16346,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.6</v>
       </c>
@@ -16397,7 +16385,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.65100000000000002</v>
       </c>
@@ -16436,7 +16424,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.69399999999999995</v>
       </c>
@@ -16475,7 +16463,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.74</v>
       </c>
@@ -16514,7 +16502,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.78500000000000003</v>
       </c>
@@ -16553,7 +16541,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.98099999999999998</v>
       </c>
@@ -16592,7 +16580,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.2210000000000001</v>
       </c>
@@ -16631,7 +16619,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.2230000000000001</v>
       </c>
@@ -16670,7 +16658,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.24</v>
       </c>
@@ -16709,7 +16697,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.248</v>
       </c>
@@ -16748,7 +16736,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.2490000000000001</v>
       </c>
@@ -16787,7 +16775,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.504</v>
       </c>
@@ -16826,7 +16814,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.532</v>
       </c>
@@ -16865,7 +16853,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.5860000000000001</v>
       </c>
@@ -16904,7 +16892,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.6120000000000001</v>
       </c>
@@ -16943,7 +16931,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.6379999999999999</v>
       </c>
@@ -16982,7 +16970,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.679</v>
       </c>
@@ -17021,7 +17009,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.6910000000000001</v>
       </c>
@@ -17060,7 +17048,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.74</v>
       </c>
@@ -17099,7 +17087,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.7450000000000001</v>
       </c>
@@ -17138,7 +17126,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.9339999999999999</v>
       </c>
@@ -17177,7 +17165,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1.9339999999999999</v>
       </c>
@@ -17216,7 +17204,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.0369999999999999</v>
       </c>
@@ -17255,7 +17243,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.1930000000000001</v>
       </c>
@@ -17294,7 +17282,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.2080000000000002</v>
       </c>
@@ -17329,7 +17317,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.2559999999999998</v>
       </c>
@@ -17362,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.2650000000000001</v>
       </c>
@@ -17395,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.4249999999999998</v>
       </c>
@@ -17428,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.431</v>
       </c>
@@ -17461,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.4319999999999999</v>
       </c>
@@ -17494,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.4769999999999999</v>
       </c>
@@ -17527,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.4860000000000002</v>
       </c>
@@ -17560,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.5510000000000002</v>
       </c>
@@ -17593,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5619999999999998</v>
       </c>
@@ -17626,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5910000000000002</v>
       </c>
@@ -17659,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.665</v>
       </c>
@@ -17692,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.7869999999999999</v>
       </c>
@@ -17725,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.8029999999999999</v>
       </c>
@@ -17758,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.8439999999999999</v>
       </c>
@@ -17791,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.859</v>
       </c>
@@ -17824,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.8730000000000002</v>
       </c>
@@ -17857,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.9369999999999998</v>
       </c>
@@ -17890,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.9929999999999999</v>
       </c>
@@ -17923,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -17956,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3.0259999999999998</v>
       </c>
@@ -17989,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3.141</v>
       </c>
@@ -18022,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.1619999999999999</v>
       </c>
@@ -18055,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3.1720000000000002</v>
       </c>
@@ -18088,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.214</v>
       </c>
@@ -18121,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.3889999999999998</v>
       </c>
@@ -18154,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3.3919999999999999</v>
       </c>
@@ -18187,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3.4260000000000002</v>
       </c>
@@ -18220,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3.5059999999999998</v>
       </c>
@@ -18253,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3.6429999999999998</v>
       </c>
@@ -18286,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3.6509999999999998</v>
       </c>
@@ -18319,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.6619999999999999</v>
       </c>
@@ -18352,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.746</v>
       </c>
@@ -18385,7 +18373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.7469999999999999</v>
       </c>
@@ -18418,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3.7610000000000001</v>
       </c>
@@ -18451,7 +18439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3.819</v>
       </c>
@@ -18484,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3.835</v>
       </c>
@@ -18517,7 +18505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3.8530000000000002</v>
       </c>
@@ -18550,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3.8769999999999998</v>
       </c>
@@ -18583,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3.9209999999999998</v>
       </c>
@@ -18616,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4.016</v>
       </c>
@@ -18649,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4.0430000000000001</v>
       </c>
@@ -18682,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4.0659999999999998</v>
       </c>
@@ -18715,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4.1020000000000003</v>
       </c>
@@ -18748,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4.125</v>
       </c>
@@ -18781,7 +18769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4.258</v>
       </c>
@@ -18814,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4.3360000000000003</v>
       </c>
@@ -18847,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4.3440000000000003</v>
       </c>
@@ -18880,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4.4109999999999996</v>
       </c>
@@ -18913,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4.4210000000000003</v>
       </c>
@@ -18946,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4.484</v>
       </c>
@@ -18979,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4.5339999999999998</v>
       </c>
@@ -19012,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4.5519999999999996</v>
       </c>
@@ -19045,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4.58</v>
       </c>
@@ -19078,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4.59</v>
       </c>
@@ -19111,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4.6210000000000004</v>
       </c>
@@ -19144,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4.6760000000000002</v>
       </c>
@@ -19177,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>4.7329999999999997</v>
       </c>
@@ -19203,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4.7489999999999997</v>
       </c>
@@ -19223,7 +19211,7 @@
         <v>4.7489999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4.7930000000000001</v>
       </c>
@@ -19243,7 +19231,7 @@
         <v>4.7930000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4.8890000000000002</v>
       </c>
@@ -19263,7 +19251,7 @@
         <v>4.8890000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4.9109999999999996</v>
       </c>
@@ -19283,7 +19271,7 @@
         <v>4.9109999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4.97</v>
       </c>
@@ -19303,7 +19291,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4.9800000000000004</v>
       </c>
@@ -19323,7 +19311,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5.1040000000000001</v>
       </c>
@@ -19343,7 +19331,7 @@
         <v>5.1040000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5.1260000000000003</v>
       </c>
@@ -19363,7 +19351,7 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5.3419999999999996</v>
       </c>
@@ -19383,7 +19371,7 @@
         <v>5.3419999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5.4</v>
       </c>
@@ -19403,7 +19391,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5.4119999999999999</v>
       </c>
@@ -19423,7 +19411,7 @@
         <v>5.4119999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5.423</v>
       </c>
@@ -19443,7 +19431,7 @@
         <v>5.423</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5.4320000000000004</v>
       </c>
@@ -19463,7 +19451,7 @@
         <v>5.4320000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5.4660000000000002</v>
       </c>
@@ -19483,7 +19471,7 @@
         <v>5.4660000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5.4809999999999999</v>
       </c>
@@ -19503,7 +19491,7 @@
         <v>5.4809999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.5620000000000003</v>
       </c>
@@ -19523,7 +19511,7 @@
         <v>5.5620000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5.6559999999999997</v>
       </c>
@@ -19543,7 +19531,7 @@
         <v>5.6559999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5.8109999999999999</v>
       </c>
@@ -19563,7 +19551,7 @@
         <v>5.8109999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5.8179999999999996</v>
       </c>
@@ -19583,7 +19571,7 @@
         <v>5.8179999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5.8689999999999998</v>
       </c>
@@ -19603,7 +19591,7 @@
         <v>5.8689999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5.9089999999999998</v>
       </c>
@@ -19623,7 +19611,7 @@
         <v>5.9089999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5.9809999999999999</v>
       </c>
@@ -19643,7 +19631,7 @@
         <v>5.9809999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>6.0019999999999998</v>
       </c>
@@ -19663,7 +19651,7 @@
         <v>6.0019999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>6.0069999999999997</v>
       </c>
@@ -19683,7 +19671,7 @@
         <v>6.0069999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6.0510000000000002</v>
       </c>
@@ -19703,7 +19691,7 @@
         <v>6.0510000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6.11</v>
       </c>
@@ -19723,7 +19711,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6.1440000000000001</v>
       </c>
@@ -19743,7 +19731,7 @@
         <v>6.1440000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6.3259999999999996</v>
       </c>
@@ -19763,7 +19751,7 @@
         <v>6.3259999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6.4029999999999996</v>
       </c>
@@ -19783,7 +19771,7 @@
         <v>6.4029999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6.4260000000000002</v>
       </c>
@@ -19803,7 +19791,7 @@
         <v>6.4260000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6.4349999999999996</v>
       </c>
@@ -19823,7 +19811,7 @@
         <v>6.4349999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6.4480000000000004</v>
       </c>
@@ -19843,7 +19831,7 @@
         <v>6.4480000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6.5439999999999996</v>
       </c>
@@ -19863,7 +19851,7 @@
         <v>6.5439999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6.5460000000000003</v>
       </c>
@@ -19883,7 +19871,7 @@
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6.5549999999999997</v>
       </c>
@@ -19903,7 +19891,7 @@
         <v>6.5549999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6.5990000000000002</v>
       </c>
@@ -19923,7 +19911,7 @@
         <v>6.5990000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6.6749999999999998</v>
       </c>
@@ -19943,7 +19931,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6.8659999999999997</v>
       </c>
@@ -19963,7 +19951,7 @@
         <v>6.8659999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6.8760000000000003</v>
       </c>
@@ -19983,7 +19971,7 @@
         <v>6.8760000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6.9489999999999998</v>
       </c>
@@ -20003,7 +19991,7 @@
         <v>6.9489999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>7.0949999999999998</v>
       </c>
@@ -20023,7 +20011,7 @@
         <v>7.0949999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7.0949999999999998</v>
       </c>
@@ -20043,7 +20031,7 @@
         <v>7.0949999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>7.11</v>
       </c>
@@ -20063,7 +20051,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>7.1479999999999997</v>
       </c>
@@ -20083,7 +20071,7 @@
         <v>7.1479999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>7.2169999999999996</v>
       </c>
@@ -20103,7 +20091,7 @@
         <v>7.2169999999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>7.25</v>
       </c>
@@ -20123,7 +20111,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>7.2569999999999997</v>
       </c>
@@ -20143,7 +20131,7 @@
         <v>7.2569999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>7.52</v>
       </c>
@@ -20163,7 +20151,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>7.54</v>
       </c>
@@ -20183,7 +20171,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>7.5830000000000002</v>
       </c>
@@ -20203,7 +20191,7 @@
         <v>7.5830000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>7.7210000000000001</v>
       </c>
@@ -20223,7 +20211,7 @@
         <v>7.7210000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7.8010000000000002</v>
       </c>
@@ -20243,7 +20231,7 @@
         <v>7.8010000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>7.8550000000000004</v>
       </c>
@@ -20263,7 +20251,7 @@
         <v>7.8550000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>7.9950000000000001</v>
       </c>
@@ -20283,7 +20271,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>8.0429999999999993</v>
       </c>
@@ -20303,7 +20291,7 @@
         <v>8.0429999999999993</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8.0440000000000005</v>
       </c>
@@ -20323,7 +20311,7 @@
         <v>8.0440000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>8.1590000000000007</v>
       </c>
@@ -20343,7 +20331,7 @@
         <v>8.1590000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>8.2420000000000009</v>
       </c>
@@ -20363,7 +20351,7 @@
         <v>8.2420000000000009</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>8.2590000000000003</v>
       </c>
@@ -20383,7 +20371,7 @@
         <v>8.2590000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>8.2959999999999994</v>
       </c>
@@ -20403,7 +20391,7 @@
         <v>8.2959999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>8.3239999999999998</v>
       </c>
@@ -20423,7 +20411,7 @@
         <v>8.3239999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>8.3339999999999996</v>
       </c>
@@ -20443,7 +20431,7 @@
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>8.41</v>
       </c>
@@ -20463,7 +20451,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>8.4700000000000006</v>
       </c>
@@ -20483,7 +20471,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8.4819999999999993</v>
       </c>
@@ -20503,7 +20491,7 @@
         <v>8.4819999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>8.5060000000000002</v>
       </c>
@@ -20523,7 +20511,7 @@
         <v>8.5060000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>8.532</v>
       </c>
@@ -20543,7 +20531,7 @@
         <v>8.532</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>8.5890000000000004</v>
       </c>
@@ -20563,7 +20551,7 @@
         <v>8.5890000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>8.6820000000000004</v>
       </c>
@@ -20583,7 +20571,7 @@
         <v>8.6820000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>8.7260000000000009</v>
       </c>
@@ -20603,7 +20591,7 @@
         <v>8.7260000000000009</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>8.9250000000000007</v>
       </c>
@@ -20623,7 +20611,7 @@
         <v>8.9250000000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>8.9890000000000008</v>
       </c>
@@ -20643,7 +20631,7 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>9.0500000000000007</v>
       </c>
@@ -20663,7 +20651,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>9.0579999999999998</v>
       </c>
@@ -20683,7 +20671,7 @@
         <v>9.0579999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9.1</v>
       </c>
@@ -20703,7 +20691,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.3510000000000009</v>
       </c>
@@ -20723,7 +20711,7 @@
         <v>9.3510000000000009</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>9.4239999999999995</v>
       </c>
@@ -20743,7 +20731,7 @@
         <v>9.4239999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9.4860000000000007</v>
       </c>
@@ -20763,7 +20751,7 @@
         <v>9.4860000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>9.5389999999999997</v>
       </c>
@@ -20783,7 +20771,7 @@
         <v>9.5389999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>9.6210000000000004</v>
       </c>
@@ -20803,7 +20791,7 @@
         <v>9.6210000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>9.6649999999999991</v>
       </c>
@@ -20823,7 +20811,7 @@
         <v>9.6649999999999991</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>9.7460000000000004</v>
       </c>
@@ -20843,7 +20831,7 @@
         <v>9.7460000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>9.8480000000000008</v>
       </c>
@@ -20863,7 +20851,7 @@
         <v>9.8480000000000008</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>9.9689999999999994</v>
       </c>
@@ -20883,7 +20871,7 @@
         <v>9.9689999999999994</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>10.042999999999999</v>
       </c>
@@ -20903,7 +20891,7 @@
         <v>10.042999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>10.16</v>
       </c>
@@ -20923,7 +20911,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>10.266999999999999</v>
       </c>
@@ -20943,7 +20931,7 @@
         <v>10.266999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>10.272</v>
       </c>
@@ -20963,7 +20951,7 @@
         <v>10.272</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>10.311</v>
       </c>
@@ -20983,7 +20971,7 @@
         <v>10.311</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>10.327999999999999</v>
       </c>
@@ -21003,7 +20991,7 @@
         <v>10.327999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10.404</v>
       </c>
@@ -21023,7 +21011,7 @@
         <v>10.404</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>10.406000000000001</v>
       </c>
@@ -21043,7 +21031,7 @@
         <v>10.406000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>10.441000000000001</v>
       </c>
@@ -21063,7 +21051,7 @@
         <v>10.441000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>10.465999999999999</v>
       </c>
@@ -21083,7 +21071,7 @@
         <v>10.465999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>10.701000000000001</v>
       </c>
@@ -21103,7 +21091,7 @@
         <v>10.701000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>10.79</v>
       </c>
@@ -21123,7 +21111,7 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10.983000000000001</v>
       </c>
@@ -21143,7 +21131,7 @@
         <v>10.983000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>11.113</v>
       </c>
@@ -21163,7 +21151,7 @@
         <v>11.113</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>11.178000000000001</v>
       </c>
@@ -21183,7 +21171,7 @@
         <v>11.178000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>11.393000000000001</v>
       </c>
@@ -21203,7 +21191,7 @@
         <v>11.393000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>11.574</v>
       </c>
@@ -21223,7 +21211,7 @@
         <v>11.574</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>11.581</v>
       </c>
@@ -21243,7 +21231,7 @@
         <v>11.581</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>11.664999999999999</v>
       </c>
@@ -21263,7 +21251,7 @@
         <v>11.664999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>11.683999999999999</v>
       </c>
@@ -21283,7 +21271,7 @@
         <v>11.683999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>11.744</v>
       </c>
@@ -21303,7 +21291,7 @@
         <v>11.744</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>11.929</v>
       </c>
@@ -21323,7 +21311,7 @@
         <v>11.929</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11.942</v>
       </c>
@@ -21343,7 +21331,7 @@
         <v>11.942</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11.943</v>
       </c>
@@ -21363,7 +21351,7 @@
         <v>11.943</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>12.34</v>
       </c>
@@ -21383,7 +21371,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>12.358000000000001</v>
       </c>
@@ -21403,7 +21391,7 @@
         <v>12.358000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>12.528</v>
       </c>
@@ -21423,7 +21411,7 @@
         <v>12.528</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>12.675000000000001</v>
       </c>
@@ -21443,7 +21431,7 @@
         <v>12.675000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>12.721</v>
       </c>
@@ -21463,7 +21451,7 @@
         <v>12.721</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>12.805999999999999</v>
       </c>
@@ -21483,7 +21471,7 @@
         <v>12.805999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>12.832000000000001</v>
       </c>
@@ -21503,7 +21491,7 @@
         <v>12.832000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>12.92</v>
       </c>
@@ -21523,7 +21511,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12.976000000000001</v>
       </c>
@@ -21543,7 +21531,7 @@
         <v>12.976000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>13.121</v>
       </c>
@@ -21563,7 +21551,7 @@
         <v>13.121</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>13.2</v>
       </c>
@@ -21583,7 +21571,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>13.202</v>
       </c>
@@ -21603,7 +21591,7 @@
         <v>13.202</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>13.311</v>
       </c>
@@ -21623,7 +21611,7 @@
         <v>13.311</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>13.507999999999999</v>
       </c>
@@ -21643,7 +21631,7 @@
         <v>13.507999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>13.595000000000001</v>
       </c>
@@ -21663,7 +21651,7 @@
         <v>13.595000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>13.76</v>
       </c>
@@ -21683,7 +21671,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>13.824999999999999</v>
       </c>
@@ -21703,7 +21691,7 @@
         <v>13.824999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>13.872999999999999</v>
       </c>
@@ -21723,7 +21711,7 @@
         <v>13.872999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>13.903</v>
       </c>
@@ -21743,7 +21731,7 @@
         <v>13.903</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>14.117000000000001</v>
       </c>
@@ -21763,7 +21751,7 @@
         <v>14.117000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>14.182</v>
       </c>
@@ -21783,7 +21771,7 @@
         <v>14.182</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14.206</v>
       </c>
@@ -21803,7 +21791,7 @@
         <v>14.206</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>14.266</v>
       </c>
@@ -21823,7 +21811,7 @@
         <v>14.266</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14.481</v>
       </c>
@@ -21843,7 +21831,7 @@
         <v>14.481</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14.618</v>
       </c>
@@ -21863,7 +21851,7 @@
         <v>14.618</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14.856999999999999</v>
       </c>
@@ -21883,7 +21871,7 @@
         <v>14.856999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>14.925000000000001</v>
       </c>
@@ -21903,7 +21891,7 @@
         <v>14.925000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>14.946</v>
       </c>
@@ -21923,7 +21911,7 @@
         <v>14.946</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>15.129</v>
       </c>
@@ -21943,7 +21931,7 @@
         <v>15.129</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>15.15</v>
       </c>
@@ -21963,7 +21951,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15.151</v>
       </c>
@@ -21983,7 +21971,7 @@
         <v>15.151</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>15.423</v>
       </c>
@@ -22003,7 +21991,7 @@
         <v>15.423</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>15.521000000000001</v>
       </c>
@@ -22023,7 +22011,7 @@
         <v>15.521000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>15.821</v>
       </c>
@@ -22043,7 +22031,7 @@
         <v>15.821</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>16.238</v>
       </c>
@@ -22063,7 +22051,7 @@
         <v>16.238</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>16.518999999999998</v>
       </c>
@@ -22083,7 +22071,7 @@
         <v>16.518999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>16.704999999999998</v>
       </c>
@@ -22103,7 +22091,7 @@
         <v>16.704999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>16.852</v>
       </c>
@@ -22123,7 +22111,7 @@
         <v>16.852</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>16.873999999999999</v>
       </c>
@@ -22143,7 +22131,7 @@
         <v>16.873999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>17.274999999999999</v>
       </c>
@@ -22163,7 +22151,7 @@
         <v>17.274999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>17.832999999999998</v>
       </c>
@@ -22183,7 +22171,7 @@
         <v>17.832999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>18.189</v>
       </c>
@@ -22203,7 +22191,7 @@
         <v>18.189</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>18.29</v>
       </c>
@@ -22223,7 +22211,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>18.311</v>
       </c>
@@ -22243,7 +22231,7 @@
         <v>18.311</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>18.492999999999999</v>
       </c>
@@ -22263,7 +22251,7 @@
         <v>18.492999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>18.617999999999999</v>
       </c>
@@ -22283,7 +22271,7 @@
         <v>18.617999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>19.175000000000001</v>
       </c>
@@ -22303,7 +22291,7 @@
         <v>19.175000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>19.603000000000002</v>
       </c>
@@ -22323,7 +22311,7 @@
         <v>19.603000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>19.640999999999998</v>
       </c>
@@ -22343,7 +22331,7 @@
         <v>19.640999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>19.93</v>
       </c>
@@ -22363,7 +22351,7 @@
         <v>19.93</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>19.933</v>
       </c>
@@ -22383,7 +22371,7 @@
         <v>19.933</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>20.11</v>
       </c>
@@ -22403,7 +22391,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>20.274000000000001</v>
       </c>
@@ -22423,7 +22411,7 @@
         <v>20.274000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>20.617999999999999</v>
       </c>
@@ -22443,7 +22431,7 @@
         <v>20.617999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>20.623000000000001</v>
       </c>
@@ -22463,7 +22451,7 @@
         <v>20.623000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>20.949000000000002</v>
       </c>
@@ -22483,7 +22471,7 @@
         <v>20.949000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>21.170999999999999</v>
       </c>
@@ -22503,7 +22491,7 @@
         <v>21.170999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>21.227</v>
       </c>
@@ -22523,7 +22511,7 @@
         <v>21.227</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>21.477</v>
       </c>
@@ -22543,7 +22531,7 @@
         <v>21.477</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>22.131</v>
       </c>
@@ -22563,7 +22551,7 @@
         <v>22.131</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>22.239000000000001</v>
       </c>
@@ -22583,7 +22571,7 @@
         <v>22.239000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>22.305</v>
       </c>
@@ -22603,7 +22591,7 @@
         <v>22.305</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>22.373999999999999</v>
       </c>
@@ -22623,7 +22611,7 @@
         <v>22.373999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>22.454000000000001</v>
       </c>
@@ -22643,7 +22631,7 @@
         <v>22.454000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>22.654</v>
       </c>
@@ -22663,7 +22651,7 @@
         <v>22.654</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>22.71</v>
       </c>
@@ -22683,7 +22671,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>23.239000000000001</v>
       </c>
@@ -22703,7 +22691,7 @@
         <v>23.239000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>23.558</v>
       </c>
@@ -22723,7 +22711,7 @@
         <v>23.558</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>23.591999999999999</v>
       </c>
@@ -22743,7 +22731,7 @@
         <v>23.591999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>24.454999999999998</v>
       </c>
@@ -22763,7 +22751,7 @@
         <v>24.454999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>24.597000000000001</v>
       </c>
@@ -22783,7 +22771,7 @@
         <v>24.597000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>25.266999999999999</v>
       </c>
@@ -22803,7 +22791,7 @@
         <v>25.266999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>25.288</v>
       </c>
@@ -22823,7 +22811,7 @@
         <v>25.288</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>25.395</v>
       </c>
@@ -22843,7 +22831,7 @@
         <v>25.395</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>26.175999999999998</v>
       </c>
@@ -22863,7 +22851,7 @@
         <v>26.175999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>26.75</v>
       </c>
@@ -22883,7 +22871,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>26.898</v>
       </c>
@@ -22903,7 +22891,7 @@
         <v>26.898</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>27.073</v>
       </c>
@@ -22923,7 +22911,7 @@
         <v>27.073</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>27.983000000000001</v>
       </c>
@@ -22943,7 +22931,7 @@
         <v>27.983000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>28.015000000000001</v>
       </c>
@@ -22963,7 +22951,7 @@
         <v>28.015000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>29.292999999999999</v>
       </c>
@@ -22983,7 +22971,7 @@
         <v>29.292999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>32.106999999999999</v>
       </c>
@@ -23003,7 +22991,7 @@
         <v>32.106999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>32.939</v>
       </c>
@@ -23023,7 +23011,7 @@
         <v>32.939</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>33.024000000000001</v>
       </c>
@@ -23043,7 +23031,7 @@
         <v>33.024000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>33.691000000000003</v>
       </c>
@@ -23063,7 +23051,7 @@
         <v>33.691000000000003</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>36.744</v>
       </c>
@@ -23083,7 +23071,7 @@
         <v>36.744</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>37.308999999999997</v>
       </c>
@@ -23103,7 +23091,7 @@
         <v>37.308999999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>37.381</v>
       </c>
@@ -23123,7 +23111,7 @@
         <v>37.381</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>37.728000000000002</v>
       </c>
@@ -23143,7 +23131,7 @@
         <v>37.728000000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>40.25</v>
       </c>
@@ -23163,7 +23151,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>51.216000000000001</v>
       </c>
@@ -23183,7 +23171,7 @@
         <v>51.216000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>58.308999999999997</v>
       </c>
@@ -23203,7 +23191,7 @@
         <v>58.308999999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>76.284000000000006</v>
       </c>
